--- a/Data/SalesTrend/SalesTrend_CBU.xlsx
+++ b/Data/SalesTrend/SalesTrend_CBU.xlsx
@@ -576,31 +576,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>88.81</v>
+        <v>89.65000000000001</v>
       </c>
       <c r="C2">
-        <v>94.34999999999999</v>
+        <v>94.31</v>
       </c>
       <c r="D2">
-        <v>115.47</v>
+        <v>115.13</v>
       </c>
       <c r="E2">
-        <v>25.05</v>
+        <v>25.21</v>
       </c>
       <c r="F2">
-        <v>116.01</v>
+        <v>118.94</v>
       </c>
       <c r="G2">
-        <v>91.22</v>
+        <v>93.3</v>
       </c>
       <c r="H2">
-        <v>99.08</v>
+        <v>99.34999999999999</v>
       </c>
       <c r="I2">
-        <v>59.5</v>
+        <v>59.57</v>
       </c>
       <c r="J2">
-        <v>108.18</v>
+        <v>108.28</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -608,31 +608,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>59.34</v>
+        <v>57.69</v>
       </c>
       <c r="C3">
-        <v>77.84</v>
+        <v>80.65000000000001</v>
       </c>
       <c r="D3">
-        <v>107.51</v>
+        <v>108.25</v>
       </c>
       <c r="E3">
-        <v>24.25</v>
+        <v>23.24</v>
       </c>
       <c r="F3">
-        <v>94.77</v>
+        <v>102.42</v>
       </c>
       <c r="G3">
-        <v>75.89</v>
+        <v>80.52</v>
       </c>
       <c r="H3">
-        <v>112.72</v>
+        <v>110.69</v>
       </c>
       <c r="I3">
-        <v>61.31</v>
+        <v>62.08</v>
       </c>
       <c r="J3">
-        <v>92.42</v>
+        <v>97.31999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -640,31 +640,31 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>37.05</v>
+        <v>36.47</v>
       </c>
       <c r="C4">
-        <v>83.18000000000001</v>
+        <v>89.84999999999999</v>
       </c>
       <c r="D4">
-        <v>95.84</v>
+        <v>91.84999999999999</v>
       </c>
       <c r="E4">
-        <v>61.93</v>
+        <v>59.35</v>
       </c>
       <c r="F4">
-        <v>95.65000000000001</v>
+        <v>125</v>
       </c>
       <c r="G4">
-        <v>49.69</v>
+        <v>90.48</v>
       </c>
       <c r="H4">
-        <v>67.29000000000001</v>
+        <v>66.91</v>
       </c>
       <c r="I4">
-        <v>48.27</v>
+        <v>46.26</v>
       </c>
       <c r="J4">
-        <v>51.01</v>
+        <v>53.33</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -672,31 +672,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>83.16</v>
+        <v>80.5</v>
       </c>
       <c r="C5">
-        <v>59.31</v>
+        <v>61.44</v>
       </c>
       <c r="D5">
-        <v>118.48</v>
+        <v>127.18</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>46.38</v>
+        <v>44.44</v>
       </c>
       <c r="G5">
-        <v>86.48999999999999</v>
+        <v>82.88</v>
       </c>
       <c r="H5">
-        <v>148.49</v>
+        <v>142.3</v>
       </c>
       <c r="I5">
-        <v>46.49</v>
+        <v>47.28</v>
       </c>
       <c r="J5">
-        <v>103.35</v>
+        <v>99.05</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -704,31 +704,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>31.63</v>
+        <v>30.77</v>
       </c>
       <c r="C6">
-        <v>31.1</v>
+        <v>29.81</v>
       </c>
       <c r="D6">
-        <v>84.73999999999999</v>
+        <v>81.20999999999999</v>
       </c>
       <c r="E6">
-        <v>14.42</v>
+        <v>13.82</v>
       </c>
       <c r="F6">
-        <v>27.83</v>
+        <v>26.67</v>
       </c>
       <c r="G6">
-        <v>71.45</v>
+        <v>68.47</v>
       </c>
       <c r="H6">
-        <v>154.52</v>
+        <v>148.09</v>
       </c>
       <c r="I6">
-        <v>83.19</v>
+        <v>79.72</v>
       </c>
       <c r="J6">
-        <v>91.15000000000001</v>
+        <v>96.55</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -736,31 +736,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>87.73</v>
+        <v>85.27</v>
       </c>
       <c r="C7">
-        <v>139.81</v>
+        <v>144.01</v>
       </c>
       <c r="D7">
-        <v>123.52</v>
+        <v>124.31</v>
       </c>
       <c r="E7">
-        <v>22.38</v>
+        <v>21.45</v>
       </c>
       <c r="F7">
-        <v>169.38</v>
+        <v>173.91</v>
       </c>
       <c r="G7">
-        <v>85.62</v>
+        <v>82.05</v>
       </c>
       <c r="H7">
-        <v>101.37</v>
+        <v>102.56</v>
       </c>
       <c r="I7">
-        <v>70.59</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="J7">
-        <v>113.25</v>
+        <v>127.13</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -768,31 +768,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>83.86</v>
+        <v>85.15000000000001</v>
       </c>
       <c r="C8">
-        <v>91.34</v>
+        <v>91.26000000000001</v>
       </c>
       <c r="D8">
-        <v>98.92</v>
+        <v>101.24</v>
       </c>
       <c r="E8">
-        <v>20.53</v>
+        <v>19.68</v>
       </c>
       <c r="F8">
-        <v>160.72</v>
+        <v>154.02</v>
       </c>
       <c r="G8">
-        <v>97.84</v>
+        <v>100.46</v>
       </c>
       <c r="H8">
-        <v>111.35</v>
+        <v>108.17</v>
       </c>
       <c r="I8">
-        <v>63.7</v>
+        <v>64.05</v>
       </c>
       <c r="J8">
-        <v>116.39</v>
+        <v>114.74</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -800,31 +800,31 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>94.11</v>
+        <v>92.45999999999999</v>
       </c>
       <c r="C9">
-        <v>96.23999999999999</v>
+        <v>92.23</v>
       </c>
       <c r="D9">
-        <v>110.22</v>
+        <v>108.79</v>
       </c>
       <c r="E9">
-        <v>76.34999999999999</v>
+        <v>73.17</v>
       </c>
       <c r="F9">
-        <v>224.75</v>
+        <v>215.38</v>
       </c>
       <c r="G9">
-        <v>86.01000000000001</v>
+        <v>96.97</v>
       </c>
       <c r="H9">
-        <v>122.02</v>
+        <v>118.01</v>
       </c>
       <c r="I9">
-        <v>60.44</v>
+        <v>60.69</v>
       </c>
       <c r="J9">
-        <v>126.67</v>
+        <v>121.39</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -832,31 +832,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>84.38</v>
+        <v>92.67</v>
       </c>
       <c r="C10">
-        <v>87.95</v>
+        <v>90.79000000000001</v>
       </c>
       <c r="D10">
-        <v>113.08</v>
+        <v>118.89</v>
       </c>
       <c r="E10">
-        <v>28.84</v>
+        <v>27.64</v>
       </c>
       <c r="F10">
-        <v>64.93000000000001</v>
+        <v>62.22</v>
       </c>
       <c r="G10">
-        <v>95.84999999999999</v>
+        <v>91.84999999999999</v>
       </c>
       <c r="H10">
-        <v>103.85</v>
+        <v>99.52</v>
       </c>
       <c r="I10">
-        <v>59.87</v>
+        <v>62.25</v>
       </c>
       <c r="J10">
-        <v>111.3</v>
+        <v>112.59</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -864,31 +864,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>72.41</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="C11">
-        <v>103.36</v>
+        <v>101.23</v>
       </c>
       <c r="D11">
-        <v>68.11</v>
+        <v>69.2</v>
       </c>
       <c r="E11">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="F11">
-        <v>250.43</v>
+        <v>240</v>
       </c>
       <c r="G11">
-        <v>82.45</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="H11">
-        <v>91.86</v>
+        <v>89.86</v>
       </c>
       <c r="I11">
-        <v>76</v>
+        <v>72.83</v>
       </c>
       <c r="J11">
-        <v>89.04000000000001</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -896,31 +896,31 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>90.09</v>
+        <v>90.59</v>
       </c>
       <c r="C12">
-        <v>73.78</v>
+        <v>78.05</v>
       </c>
       <c r="D12">
-        <v>115.96</v>
+        <v>120.93</v>
       </c>
       <c r="E12">
-        <v>7.08</v>
+        <v>6.79</v>
       </c>
       <c r="F12">
-        <v>111.3</v>
+        <v>106.67</v>
       </c>
       <c r="G12">
-        <v>150.11</v>
+        <v>147.37</v>
       </c>
       <c r="H12">
-        <v>136.09</v>
+        <v>133.33</v>
       </c>
       <c r="I12">
-        <v>60.57</v>
+        <v>61.84</v>
       </c>
       <c r="J12">
-        <v>136.11</v>
+        <v>136.23</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -928,31 +928,31 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>110.4</v>
+        <v>113.81</v>
       </c>
       <c r="C13">
-        <v>104.81</v>
+        <v>104.47</v>
       </c>
       <c r="D13">
-        <v>104.77</v>
+        <v>106.76</v>
       </c>
       <c r="E13">
-        <v>47.61</v>
+        <v>45.63</v>
       </c>
       <c r="F13">
-        <v>77.77</v>
+        <v>80.33</v>
       </c>
       <c r="G13">
-        <v>88.93000000000001</v>
+        <v>87.12</v>
       </c>
       <c r="H13">
-        <v>107.48</v>
+        <v>109.13</v>
       </c>
       <c r="I13">
-        <v>61.69</v>
+        <v>61.39</v>
       </c>
       <c r="J13">
-        <v>109.88</v>
+        <v>114.53</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -960,31 +960,31 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>107.51</v>
+        <v>107.24</v>
       </c>
       <c r="C14">
-        <v>110.47</v>
+        <v>106.59</v>
       </c>
       <c r="D14">
-        <v>109.04</v>
+        <v>114.61</v>
       </c>
       <c r="E14">
-        <v>18.01</v>
+        <v>17.25</v>
       </c>
       <c r="F14">
-        <v>124.74</v>
+        <v>133.33</v>
       </c>
       <c r="G14">
-        <v>107.63</v>
+        <v>105.66</v>
       </c>
       <c r="H14">
-        <v>123.52</v>
+        <v>126.86</v>
       </c>
       <c r="I14">
-        <v>66.27</v>
+        <v>65.67</v>
       </c>
       <c r="J14">
-        <v>123.28</v>
+        <v>129.96</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -992,31 +992,31 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>124.65</v>
+        <v>122.92</v>
       </c>
       <c r="C15">
-        <v>118.91</v>
+        <v>126.36</v>
       </c>
       <c r="D15">
-        <v>108</v>
+        <v>109.77</v>
       </c>
       <c r="E15">
-        <v>91.66</v>
+        <v>87.84</v>
       </c>
       <c r="F15">
-        <v>81.56</v>
+        <v>82.76000000000001</v>
       </c>
       <c r="G15">
-        <v>91.3</v>
+        <v>89.58</v>
       </c>
       <c r="H15">
-        <v>106.48</v>
+        <v>108.09</v>
       </c>
       <c r="I15">
-        <v>95.2</v>
+        <v>93.41</v>
       </c>
       <c r="J15">
-        <v>118.52</v>
+        <v>128.4</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1024,31 +1024,31 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>112.16</v>
+        <v>118.94</v>
       </c>
       <c r="C16">
-        <v>118.05</v>
+        <v>113.13</v>
       </c>
       <c r="D16">
-        <v>96.45</v>
+        <v>98.76000000000001</v>
       </c>
       <c r="E16">
-        <v>72.06</v>
+        <v>69.06</v>
       </c>
       <c r="F16">
-        <v>77.91</v>
+        <v>90.67</v>
       </c>
       <c r="G16">
-        <v>78.42</v>
+        <v>77.58</v>
       </c>
       <c r="H16">
-        <v>93.27</v>
+        <v>90.61</v>
       </c>
       <c r="I16">
-        <v>37.46</v>
+        <v>45.6</v>
       </c>
       <c r="J16">
-        <v>96.48999999999999</v>
+        <v>94.62</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1056,31 +1056,31 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>116.85</v>
+        <v>113.56</v>
       </c>
       <c r="C17">
-        <v>97.43000000000001</v>
+        <v>94.06999999999999</v>
       </c>
       <c r="D17">
-        <v>121.71</v>
+        <v>116.64</v>
       </c>
       <c r="E17">
-        <v>49.2</v>
+        <v>47.15</v>
       </c>
       <c r="F17">
-        <v>54.44</v>
+        <v>52.17</v>
       </c>
       <c r="G17">
-        <v>96.79000000000001</v>
+        <v>92.75</v>
       </c>
       <c r="H17">
-        <v>135.88</v>
+        <v>130.22</v>
       </c>
       <c r="I17">
-        <v>40.76</v>
+        <v>39.07</v>
       </c>
       <c r="J17">
-        <v>92.75</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1088,31 +1088,31 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>107.53</v>
+        <v>129.86</v>
       </c>
       <c r="C18">
-        <v>94.79000000000001</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D18">
+        <v>111.47</v>
+      </c>
+      <c r="E18">
+        <v>4.88</v>
+      </c>
+      <c r="F18">
+        <v>32</v>
+      </c>
+      <c r="G18">
+        <v>81.16</v>
+      </c>
+      <c r="H18">
         <v>105.68</v>
       </c>
-      <c r="E18">
-        <v>5.09</v>
-      </c>
-      <c r="F18">
-        <v>33.39</v>
-      </c>
-      <c r="G18">
-        <v>82.67</v>
-      </c>
-      <c r="H18">
-        <v>92.97</v>
-      </c>
       <c r="I18">
-        <v>74.97</v>
+        <v>71.84999999999999</v>
       </c>
       <c r="J18">
-        <v>89.04000000000001</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1120,31 +1120,31 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>71.61</v>
+        <v>74.23</v>
       </c>
       <c r="C19">
-        <v>72.7</v>
+        <v>74.77</v>
       </c>
       <c r="D19">
-        <v>81.45</v>
+        <v>80.41</v>
       </c>
       <c r="E19">
-        <v>23.75</v>
+        <v>22.76</v>
       </c>
       <c r="F19">
-        <v>83.48</v>
+        <v>80</v>
       </c>
       <c r="G19">
-        <v>81.34</v>
+        <v>80</v>
       </c>
       <c r="H19">
-        <v>91.31999999999999</v>
+        <v>92.26000000000001</v>
       </c>
       <c r="I19">
-        <v>36.21</v>
+        <v>35.92</v>
       </c>
       <c r="J19">
-        <v>136.29</v>
+        <v>138.78</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1152,31 +1152,31 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>66.04000000000001</v>
+        <v>66.72</v>
       </c>
       <c r="C20">
-        <v>120.13</v>
+        <v>118.38</v>
       </c>
       <c r="D20">
-        <v>148.64</v>
+        <v>143.76</v>
       </c>
       <c r="E20">
-        <v>24.17</v>
+        <v>29.18</v>
       </c>
       <c r="F20">
-        <v>118.17</v>
+        <v>124.2</v>
       </c>
       <c r="G20">
-        <v>88.70999999999999</v>
+        <v>94.19</v>
       </c>
       <c r="H20">
         <v>100.95</v>
       </c>
       <c r="I20">
-        <v>64.59</v>
+        <v>62.31</v>
       </c>
       <c r="J20">
-        <v>129.62</v>
+        <v>126.71</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1184,31 +1184,31 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>54.24</v>
+        <v>55.91</v>
       </c>
       <c r="C21">
-        <v>60.65</v>
+        <v>66.81999999999999</v>
       </c>
       <c r="D21">
-        <v>91.09</v>
+        <v>98.92</v>
       </c>
       <c r="E21">
-        <v>58.68</v>
+        <v>56.24</v>
       </c>
       <c r="F21">
-        <v>168.94</v>
+        <v>161.9</v>
       </c>
       <c r="G21">
-        <v>43.29</v>
+        <v>59.26</v>
       </c>
       <c r="H21">
-        <v>89.16</v>
+        <v>93.7</v>
       </c>
       <c r="I21">
-        <v>64.06999999999999</v>
+        <v>61.4</v>
       </c>
       <c r="J21">
-        <v>172.97</v>
+        <v>165.77</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1216,31 +1216,31 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>79.72</v>
+        <v>78.69</v>
       </c>
       <c r="C22">
-        <v>205.05</v>
+        <v>199.07</v>
       </c>
       <c r="D22">
-        <v>307.33</v>
+        <v>294.53</v>
       </c>
       <c r="E22">
-        <v>8.18</v>
+        <v>31.37</v>
       </c>
       <c r="F22">
-        <v>60.87</v>
+        <v>58.33</v>
       </c>
       <c r="G22">
-        <v>69.56999999999999</v>
+        <v>66.67</v>
       </c>
       <c r="H22">
-        <v>97.45</v>
+        <v>98.05</v>
       </c>
       <c r="I22">
-        <v>73.67</v>
+        <v>72.27</v>
       </c>
       <c r="J22">
-        <v>89.44</v>
+        <v>85.70999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1248,31 +1248,31 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>91.67</v>
+        <v>89.44</v>
       </c>
       <c r="C23">
-        <v>161.01</v>
+        <v>155.42</v>
       </c>
       <c r="D23">
-        <v>62.88</v>
+        <v>64.05</v>
       </c>
       <c r="E23">
-        <v>32.49</v>
+        <v>35.93</v>
       </c>
       <c r="F23">
-        <v>131.4</v>
+        <v>162.96</v>
       </c>
       <c r="G23">
-        <v>121.42</v>
+        <v>133.33</v>
       </c>
       <c r="H23">
-        <v>123.85</v>
+        <v>124.49</v>
       </c>
       <c r="I23">
-        <v>55.98</v>
+        <v>53.64</v>
       </c>
       <c r="J23">
-        <v>123.32</v>
+        <v>121.21</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1280,31 +1280,31 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>78.95999999999999</v>
+        <v>79.97</v>
       </c>
       <c r="C24">
-        <v>36.88</v>
+        <v>35.34</v>
       </c>
       <c r="D24">
-        <v>52.94</v>
+        <v>50.73</v>
       </c>
       <c r="E24">
-        <v>9.33</v>
+        <v>8.94</v>
       </c>
       <c r="F24">
-        <v>55.65</v>
+        <v>53.33</v>
       </c>
       <c r="G24">
-        <v>56.92</v>
+        <v>54.55</v>
       </c>
       <c r="H24">
-        <v>54.25</v>
+        <v>51.99</v>
       </c>
       <c r="I24">
-        <v>30.17</v>
+        <v>28.91</v>
       </c>
       <c r="J24">
-        <v>80.27</v>
+        <v>82.05</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1312,31 +1312,31 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>36.33</v>
+        <v>40.18</v>
       </c>
       <c r="C25">
-        <v>65.18000000000001</v>
+        <v>65.01000000000001</v>
       </c>
       <c r="D25">
-        <v>24.37</v>
+        <v>23.85</v>
       </c>
       <c r="E25">
-        <v>9.33</v>
+        <v>8.94</v>
       </c>
       <c r="F25">
-        <v>157.68</v>
+        <v>160</v>
       </c>
       <c r="G25">
-        <v>130.06</v>
+        <v>130.43</v>
       </c>
       <c r="H25">
-        <v>113.12</v>
+        <v>109.8</v>
       </c>
       <c r="I25">
-        <v>84.8</v>
+        <v>81.26000000000001</v>
       </c>
       <c r="J25">
-        <v>171.24</v>
+        <v>169.23</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1344,31 +1344,31 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>85.04000000000001</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="C26">
-        <v>67.73999999999999</v>
+        <v>68.81999999999999</v>
       </c>
       <c r="D26">
-        <v>97.94</v>
+        <v>99.3</v>
       </c>
       <c r="E26">
-        <v>11.68</v>
+        <v>11.19</v>
       </c>
       <c r="F26">
-        <v>172.14</v>
+        <v>177.4</v>
       </c>
       <c r="G26">
-        <v>96.90000000000001</v>
+        <v>97.12</v>
       </c>
       <c r="H26">
-        <v>98.33</v>
+        <v>100.32</v>
       </c>
       <c r="I26">
-        <v>49.36</v>
+        <v>51.61</v>
       </c>
       <c r="J26">
-        <v>89.04000000000001</v>
+        <v>87.79000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1376,31 +1376,31 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>61.82</v>
+        <v>64.66</v>
       </c>
       <c r="C27">
-        <v>48.46</v>
+        <v>47.58</v>
       </c>
       <c r="D27">
-        <v>99.98999999999999</v>
+        <v>95.81999999999999</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>139.13</v>
+        <v>141.67</v>
       </c>
       <c r="G27">
-        <v>109.62</v>
+        <v>105.05</v>
       </c>
       <c r="H27">
-        <v>126.81</v>
+        <v>123.99</v>
       </c>
       <c r="I27">
-        <v>34.77</v>
+        <v>33.32</v>
       </c>
       <c r="J27">
-        <v>78.48</v>
+        <v>78.63</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1408,31 +1408,31 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>129.01</v>
+        <v>128.81</v>
       </c>
       <c r="C28">
-        <v>96.3</v>
+        <v>94.61</v>
       </c>
       <c r="D28">
-        <v>109.71</v>
+        <v>113.39</v>
       </c>
       <c r="E28">
-        <v>14.42</v>
+        <v>13.82</v>
       </c>
       <c r="F28">
-        <v>106.39</v>
+        <v>109.8</v>
       </c>
       <c r="G28">
-        <v>86.56999999999999</v>
+        <v>97.78</v>
       </c>
       <c r="H28">
-        <v>108.84</v>
+        <v>105.54</v>
       </c>
       <c r="I28">
-        <v>21.87</v>
+        <v>22.67</v>
       </c>
       <c r="J28">
-        <v>106.83</v>
+        <v>111.9</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1440,31 +1440,31 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>79.65000000000001</v>
+        <v>81.41</v>
       </c>
       <c r="C29">
-        <v>37.04</v>
+        <v>44.5</v>
       </c>
       <c r="D29">
-        <v>83.17</v>
+        <v>87.3</v>
       </c>
       <c r="E29">
-        <v>26.13</v>
+        <v>25.05</v>
       </c>
       <c r="F29">
-        <v>230.1</v>
+        <v>261.54</v>
       </c>
       <c r="G29">
-        <v>90.03</v>
+        <v>96.08</v>
       </c>
       <c r="H29">
-        <v>82.41</v>
+        <v>96.88</v>
       </c>
       <c r="I29">
-        <v>90.59999999999999</v>
+        <v>87.15000000000001</v>
       </c>
       <c r="J29">
-        <v>109.32</v>
+        <v>104.76</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1472,31 +1472,31 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>70.19</v>
+        <v>72.73999999999999</v>
       </c>
       <c r="C30">
-        <v>74.38</v>
+        <v>72.29000000000001</v>
       </c>
       <c r="D30">
-        <v>81.34</v>
+        <v>82.76000000000001</v>
       </c>
       <c r="E30">
-        <v>7.5</v>
+        <v>7.19</v>
       </c>
       <c r="F30">
-        <v>215.65</v>
+        <v>206.67</v>
       </c>
       <c r="G30">
-        <v>108.7</v>
+        <v>104.17</v>
       </c>
       <c r="H30">
-        <v>102</v>
+        <v>106.54</v>
       </c>
       <c r="I30">
-        <v>60.22</v>
+        <v>65.33</v>
       </c>
       <c r="J30">
-        <v>90.03</v>
+        <v>88.23999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1504,31 +1504,31 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>71.75</v>
+        <v>72.87</v>
       </c>
       <c r="C31">
-        <v>93.45999999999999</v>
+        <v>91.91</v>
       </c>
       <c r="D31">
-        <v>85.11</v>
+        <v>85.84999999999999</v>
       </c>
       <c r="E31">
-        <v>18.75</v>
+        <v>17.96</v>
       </c>
       <c r="F31">
-        <v>226.09</v>
+        <v>222.22</v>
       </c>
       <c r="G31">
-        <v>109.62</v>
+        <v>105.05</v>
       </c>
       <c r="H31">
-        <v>77.95</v>
+        <v>75.97</v>
       </c>
       <c r="I31">
-        <v>54.71</v>
+        <v>65.76000000000001</v>
       </c>
       <c r="J31">
-        <v>60.22</v>
+        <v>57.71</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1536,31 +1536,31 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>136.13</v>
+        <v>136.98</v>
       </c>
       <c r="C32">
-        <v>48.88</v>
+        <v>54.38</v>
       </c>
       <c r="D32">
-        <v>144.21</v>
+        <v>145.32</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>37.1</v>
+        <v>35.56</v>
       </c>
       <c r="G32">
-        <v>67.69</v>
+        <v>64.86</v>
       </c>
       <c r="H32">
-        <v>101.88</v>
+        <v>102.37</v>
       </c>
       <c r="I32">
-        <v>21.53</v>
+        <v>21.94</v>
       </c>
       <c r="J32">
-        <v>92.75</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1568,31 +1568,31 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>99.06</v>
+        <v>98.44</v>
       </c>
       <c r="C33">
-        <v>113.86</v>
+        <v>113.58</v>
       </c>
       <c r="D33">
-        <v>110.78</v>
+        <v>110.73</v>
       </c>
       <c r="E33">
-        <v>23.76</v>
+        <v>24.97</v>
       </c>
       <c r="F33">
-        <v>114.25</v>
+        <v>114.79</v>
       </c>
       <c r="G33">
-        <v>105.37</v>
+        <v>106.21</v>
       </c>
       <c r="H33">
-        <v>94.04000000000001</v>
+        <v>94.79000000000001</v>
       </c>
       <c r="I33">
-        <v>67.16</v>
+        <v>65.79000000000001</v>
       </c>
       <c r="J33">
-        <v>116.66</v>
+        <v>115.34</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1600,31 +1600,31 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>102.82</v>
+        <v>102.56</v>
       </c>
       <c r="C34">
-        <v>110.68</v>
+        <v>109.72</v>
       </c>
       <c r="D34">
-        <v>127.36</v>
+        <v>129.28</v>
       </c>
       <c r="E34">
-        <v>40.38</v>
+        <v>38.7</v>
       </c>
       <c r="F34">
-        <v>168.94</v>
+        <v>161.9</v>
       </c>
       <c r="G34">
-        <v>85.62</v>
+        <v>87.18000000000001</v>
       </c>
       <c r="H34">
-        <v>97.89</v>
+        <v>98.15000000000001</v>
       </c>
       <c r="I34">
-        <v>106.38</v>
+        <v>103.3</v>
       </c>
       <c r="J34">
-        <v>117.58</v>
+        <v>116.43</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1632,31 +1632,31 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>119.08</v>
+        <v>117.37</v>
       </c>
       <c r="C35">
-        <v>150.9</v>
+        <v>146.26</v>
       </c>
       <c r="D35">
-        <v>141.07</v>
+        <v>144.45</v>
       </c>
       <c r="E35">
-        <v>9.33</v>
+        <v>8.94</v>
       </c>
       <c r="F35">
-        <v>99.38</v>
+        <v>95.23999999999999</v>
       </c>
       <c r="G35">
-        <v>133.64</v>
+        <v>133.33</v>
       </c>
       <c r="H35">
-        <v>91.81999999999999</v>
+        <v>92.75</v>
       </c>
       <c r="I35">
-        <v>100.71</v>
+        <v>98.16</v>
       </c>
       <c r="J35">
-        <v>158.1</v>
+        <v>153.03</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1664,31 +1664,31 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>53.25</v>
+        <v>57.51</v>
       </c>
       <c r="C36">
-        <v>71.38</v>
+        <v>74.65000000000001</v>
       </c>
       <c r="D36">
-        <v>48.78</v>
+        <v>51.08</v>
       </c>
       <c r="E36">
-        <v>26.13</v>
+        <v>41.25</v>
       </c>
       <c r="F36">
-        <v>62.24</v>
+        <v>59.65</v>
       </c>
       <c r="G36">
-        <v>144.48</v>
+        <v>143.59</v>
       </c>
       <c r="H36">
-        <v>63.15</v>
+        <v>65.28</v>
       </c>
       <c r="I36">
-        <v>51.11</v>
+        <v>51.39</v>
       </c>
       <c r="J36">
-        <v>135.1</v>
+        <v>133.33</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1696,31 +1696,31 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>106.75</v>
+        <v>104.71</v>
       </c>
       <c r="C37">
-        <v>111.41</v>
+        <v>112.82</v>
       </c>
       <c r="D37">
-        <v>118.19</v>
+        <v>120.3</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>187.83</v>
+        <v>186.67</v>
       </c>
       <c r="G37">
-        <v>95.65000000000001</v>
+        <v>91.67</v>
       </c>
       <c r="H37">
-        <v>118.11</v>
+        <v>119.18</v>
       </c>
       <c r="I37">
-        <v>63.73</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="J37">
-        <v>145.31</v>
+        <v>148.15</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1728,31 +1728,31 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>134.22</v>
+        <v>131.62</v>
       </c>
       <c r="C38">
-        <v>155.77</v>
+        <v>157.13</v>
       </c>
       <c r="D38">
-        <v>115.79</v>
+        <v>110.97</v>
       </c>
       <c r="E38">
-        <v>67.02</v>
+        <v>64.23</v>
       </c>
       <c r="F38">
-        <v>102.03</v>
+        <v>106.67</v>
       </c>
       <c r="G38">
-        <v>98.31999999999999</v>
+        <v>104.89</v>
       </c>
       <c r="H38">
-        <v>91.53</v>
+        <v>93.59</v>
       </c>
       <c r="I38">
-        <v>44.04</v>
+        <v>42.21</v>
       </c>
       <c r="J38">
-        <v>67.73</v>
+        <v>70.18000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1760,31 +1760,31 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>82.47</v>
+        <v>80.28</v>
       </c>
       <c r="C39">
-        <v>148.2</v>
+        <v>142.03</v>
       </c>
       <c r="D39">
-        <v>103.73</v>
+        <v>99.41</v>
       </c>
       <c r="E39">
-        <v>8.43</v>
+        <v>8.08</v>
       </c>
       <c r="F39">
-        <v>92.75</v>
+        <v>111.11</v>
       </c>
       <c r="G39">
-        <v>58.24</v>
+        <v>62.02</v>
       </c>
       <c r="H39">
-        <v>84.64</v>
+        <v>86.47</v>
       </c>
       <c r="I39">
-        <v>51.07</v>
+        <v>48.94</v>
       </c>
       <c r="J39">
-        <v>117.49</v>
+        <v>112.59</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1792,31 +1792,31 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>143.08</v>
+        <v>137.11</v>
       </c>
       <c r="C40">
-        <v>77.31999999999999</v>
+        <v>77.22</v>
       </c>
       <c r="D40">
-        <v>128.34</v>
+        <v>126.75</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>155.5</v>
+        <v>149.02</v>
       </c>
       <c r="G40">
-        <v>103.23</v>
+        <v>101.08</v>
       </c>
       <c r="H40">
-        <v>144.05</v>
+        <v>138.05</v>
       </c>
       <c r="I40">
-        <v>51.21</v>
+        <v>49.08</v>
       </c>
       <c r="J40">
-        <v>71.95999999999999</v>
+        <v>71.26000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1824,31 +1824,31 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>100.77</v>
+        <v>100.17</v>
       </c>
       <c r="C41">
-        <v>76.97</v>
+        <v>75.84</v>
       </c>
       <c r="D41">
-        <v>120.09</v>
+        <v>118.94</v>
       </c>
       <c r="E41">
-        <v>24.58</v>
+        <v>23.56</v>
       </c>
       <c r="F41">
-        <v>95.89</v>
+        <v>100.9</v>
       </c>
       <c r="G41">
-        <v>56.21</v>
+        <v>66.23</v>
       </c>
       <c r="H41">
-        <v>76.66</v>
+        <v>76.73</v>
       </c>
       <c r="I41">
-        <v>52.49</v>
+        <v>52.56</v>
       </c>
       <c r="J41">
-        <v>101.98</v>
+        <v>99.68000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1856,31 +1856,31 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>54.92</v>
+        <v>52.63</v>
       </c>
       <c r="C42">
-        <v>53.86</v>
+        <v>51.61</v>
       </c>
       <c r="D42">
-        <v>84.18000000000001</v>
+        <v>80.68000000000001</v>
       </c>
       <c r="E42">
-        <v>28.84</v>
+        <v>27.64</v>
       </c>
       <c r="F42">
-        <v>95.65000000000001</v>
+        <v>100</v>
       </c>
       <c r="G42">
-        <v>24.2</v>
+        <v>23.19</v>
       </c>
       <c r="H42">
-        <v>86.76000000000001</v>
+        <v>83.14</v>
       </c>
       <c r="I42">
-        <v>40.2</v>
+        <v>48.24</v>
       </c>
       <c r="J42">
-        <v>134.78</v>
+        <v>129.17</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1888,31 +1888,31 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>110.65</v>
+        <v>108.66</v>
       </c>
       <c r="C43">
-        <v>99.56999999999999</v>
+        <v>99.64</v>
       </c>
       <c r="D43">
-        <v>104.79</v>
+        <v>104.88</v>
       </c>
       <c r="E43">
-        <v>10.67</v>
+        <v>10.22</v>
       </c>
       <c r="F43">
-        <v>114.93</v>
+        <v>110.14</v>
       </c>
       <c r="G43">
-        <v>37.1</v>
+        <v>41.48</v>
       </c>
       <c r="H43">
-        <v>71.89</v>
+        <v>72.61</v>
       </c>
       <c r="I43">
-        <v>74.40000000000001</v>
+        <v>71.3</v>
       </c>
       <c r="J43">
-        <v>86.56999999999999</v>
+        <v>82.95999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1920,31 +1920,31 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>144.36</v>
+        <v>156.19</v>
       </c>
       <c r="C44">
-        <v>65.90000000000001</v>
+        <v>66.28</v>
       </c>
       <c r="D44">
-        <v>140.68</v>
+        <v>139.47</v>
       </c>
       <c r="E44">
-        <v>47.51</v>
+        <v>45.53</v>
       </c>
       <c r="F44">
-        <v>92.75</v>
+        <v>124.44</v>
       </c>
       <c r="G44">
-        <v>29.81</v>
+        <v>66.67</v>
       </c>
       <c r="H44">
-        <v>49.86</v>
+        <v>48.68</v>
       </c>
       <c r="I44">
-        <v>53.44</v>
+        <v>51.21</v>
       </c>
       <c r="J44">
-        <v>85.02</v>
+        <v>83.95</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1952,31 +1952,31 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>105.72</v>
+        <v>101.94</v>
       </c>
       <c r="C45">
-        <v>78.42</v>
+        <v>76.16</v>
       </c>
       <c r="D45">
-        <v>135.37</v>
+        <v>134.56</v>
       </c>
       <c r="E45">
-        <v>22.92</v>
+        <v>21.96</v>
       </c>
       <c r="F45">
-        <v>76.52</v>
+        <v>73.33</v>
       </c>
       <c r="G45">
-        <v>98.66</v>
+        <v>104.24</v>
       </c>
       <c r="H45">
-        <v>110.99</v>
+        <v>115.19</v>
       </c>
       <c r="I45">
-        <v>46.98</v>
+        <v>46.08</v>
       </c>
       <c r="J45">
-        <v>109.45</v>
+        <v>108.44</v>
       </c>
     </row>
   </sheetData>

--- a/Data/SalesTrend/SalesTrend_CBU.xlsx
+++ b/Data/SalesTrend/SalesTrend_CBU.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>FFTR</t>
   </si>
@@ -44,6 +44,138 @@
   </si>
   <si>
     <t>NOCLOG</t>
+  </si>
+  <si>
+    <t>CBU</t>
+  </si>
+  <si>
+    <t>CBU10</t>
+  </si>
+  <si>
+    <t>CBU11</t>
+  </si>
+  <si>
+    <t>CBU12</t>
+  </si>
+  <si>
+    <t>CBU13</t>
+  </si>
+  <si>
+    <t>CBU14</t>
+  </si>
+  <si>
+    <t>CBU20</t>
+  </si>
+  <si>
+    <t>CBU21</t>
+  </si>
+  <si>
+    <t>CBU22</t>
+  </si>
+  <si>
+    <t>CBU23</t>
+  </si>
+  <si>
+    <t>CBU25</t>
+  </si>
+  <si>
+    <t>CBU30</t>
+  </si>
+  <si>
+    <t>CBU31</t>
+  </si>
+  <si>
+    <t>CBU32</t>
+  </si>
+  <si>
+    <t>CBU33</t>
+  </si>
+  <si>
+    <t>CBU34</t>
+  </si>
+  <si>
+    <t>CBU35</t>
+  </si>
+  <si>
+    <t>CBU36</t>
+  </si>
+  <si>
+    <t>CBU40</t>
+  </si>
+  <si>
+    <t>CBU41</t>
+  </si>
+  <si>
+    <t>CBU42</t>
+  </si>
+  <si>
+    <t>CBU44</t>
+  </si>
+  <si>
+    <t>CBU45</t>
+  </si>
+  <si>
+    <t>CBU46</t>
+  </si>
+  <si>
+    <t>CBU50</t>
+  </si>
+  <si>
+    <t>CBU51</t>
+  </si>
+  <si>
+    <t>CBU52</t>
+  </si>
+  <si>
+    <t>CBU53</t>
+  </si>
+  <si>
+    <t>CBU54</t>
+  </si>
+  <si>
+    <t>CBU55</t>
+  </si>
+  <si>
+    <t>CBU56</t>
+  </si>
+  <si>
+    <t>CBU60</t>
+  </si>
+  <si>
+    <t>CBU61</t>
+  </si>
+  <si>
+    <t>CBU62</t>
+  </si>
+  <si>
+    <t>CBU63</t>
+  </si>
+  <si>
+    <t>CBU64</t>
+  </si>
+  <si>
+    <t>CBU65</t>
+  </si>
+  <si>
+    <t>CBU66</t>
+  </si>
+  <si>
+    <t>CBU67</t>
+  </si>
+  <si>
+    <t>CBU70</t>
+  </si>
+  <si>
+    <t>CBU71</t>
+  </si>
+  <si>
+    <t>CBU72</t>
+  </si>
+  <si>
+    <t>CBU73</t>
+  </si>
+  <si>
+    <t>CBU75</t>
   </si>
 </sst>
 </file>
@@ -401,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -439,6 +571,1414 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>72.17</v>
+      </c>
+      <c r="C2">
+        <v>66.48</v>
+      </c>
+      <c r="D2">
+        <v>60.52</v>
+      </c>
+      <c r="E2">
+        <v>44.56</v>
+      </c>
+      <c r="F2">
+        <v>121.87</v>
+      </c>
+      <c r="G2">
+        <v>68.34999999999999</v>
+      </c>
+      <c r="H2">
+        <v>54.5</v>
+      </c>
+      <c r="I2">
+        <v>58.49</v>
+      </c>
+      <c r="J2">
+        <v>81.63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>74</v>
+      </c>
+      <c r="C3">
+        <v>103.08</v>
+      </c>
+      <c r="D3">
+        <v>86.48999999999999</v>
+      </c>
+      <c r="E3">
+        <v>24.65</v>
+      </c>
+      <c r="F3">
+        <v>101.88</v>
+      </c>
+      <c r="G3">
+        <v>41.33</v>
+      </c>
+      <c r="H3">
+        <v>87.18000000000001</v>
+      </c>
+      <c r="I3">
+        <v>69.05</v>
+      </c>
+      <c r="J3">
+        <v>123.38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>113.95</v>
+      </c>
+      <c r="C4">
+        <v>251.64</v>
+      </c>
+      <c r="D4">
+        <v>41.7</v>
+      </c>
+      <c r="E4">
+        <v>120.39</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>120.16</v>
+      </c>
+      <c r="I4">
+        <v>187.45</v>
+      </c>
+      <c r="J4">
+        <v>229.63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>46.63</v>
+      </c>
+      <c r="C5">
+        <v>49.54</v>
+      </c>
+      <c r="D5">
+        <v>122.05</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>21.53</v>
+      </c>
+      <c r="H5">
+        <v>72.26000000000001</v>
+      </c>
+      <c r="I5">
+        <v>17.1</v>
+      </c>
+      <c r="J5">
+        <v>86.11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>33.01</v>
+      </c>
+      <c r="D6">
+        <v>95.23999999999999</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>114.81</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>61.92</v>
+      </c>
+      <c r="I6">
+        <v>17.86</v>
+      </c>
+      <c r="J6">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>116.52</v>
+      </c>
+      <c r="C7">
+        <v>90.06999999999999</v>
+      </c>
+      <c r="D7">
+        <v>87.2</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>182.35</v>
+      </c>
+      <c r="G7">
+        <v>114.81</v>
+      </c>
+      <c r="H7">
+        <v>86.58</v>
+      </c>
+      <c r="I7">
+        <v>53.77</v>
+      </c>
+      <c r="J7">
+        <v>89.86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>82.42</v>
+      </c>
+      <c r="C8">
+        <v>95.98999999999999</v>
+      </c>
+      <c r="D8">
+        <v>94.38</v>
+      </c>
+      <c r="E8">
+        <v>96.23999999999999</v>
+      </c>
+      <c r="F8">
+        <v>164.73</v>
+      </c>
+      <c r="G8">
+        <v>64.81999999999999</v>
+      </c>
+      <c r="H8">
+        <v>67.31</v>
+      </c>
+      <c r="I8">
+        <v>84.05</v>
+      </c>
+      <c r="J8">
+        <v>128.61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>84.59</v>
+      </c>
+      <c r="C9">
+        <v>84.91</v>
+      </c>
+      <c r="D9">
+        <v>98.92</v>
+      </c>
+      <c r="E9">
+        <v>401.29</v>
+      </c>
+      <c r="F9">
+        <v>258.33</v>
+      </c>
+      <c r="G9">
+        <v>119.81</v>
+      </c>
+      <c r="H9">
+        <v>101.19</v>
+      </c>
+      <c r="I9">
+        <v>83.88</v>
+      </c>
+      <c r="J9">
+        <v>180.83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>148.63</v>
+      </c>
+      <c r="C10">
+        <v>164.35</v>
+      </c>
+      <c r="D10">
+        <v>32.15</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>275.56</v>
+      </c>
+      <c r="G10">
+        <v>46.97</v>
+      </c>
+      <c r="H10">
+        <v>101.77</v>
+      </c>
+      <c r="I10">
+        <v>134.69</v>
+      </c>
+      <c r="J10">
+        <v>247.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>57.61</v>
+      </c>
+      <c r="C11">
+        <v>77.53</v>
+      </c>
+      <c r="D11">
+        <v>171.57</v>
+      </c>
+      <c r="E11">
+        <v>85.28</v>
+      </c>
+      <c r="F11">
+        <v>129.17</v>
+      </c>
+      <c r="G11">
+        <v>81.58</v>
+      </c>
+      <c r="H11">
+        <v>49.6</v>
+      </c>
+      <c r="I11">
+        <v>59.26</v>
+      </c>
+      <c r="J11">
+        <v>63.27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>78.3</v>
+      </c>
+      <c r="C12">
+        <v>83.40000000000001</v>
+      </c>
+      <c r="D12">
+        <v>38.42</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>15.45</v>
+      </c>
+      <c r="I12">
+        <v>51.88</v>
+      </c>
+      <c r="J12">
+        <v>17.82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>54.69</v>
+      </c>
+      <c r="C13">
+        <v>57.77</v>
+      </c>
+      <c r="D13">
+        <v>42.94</v>
+      </c>
+      <c r="E13">
+        <v>39.15</v>
+      </c>
+      <c r="F13">
+        <v>72.94</v>
+      </c>
+      <c r="G13">
+        <v>39.09</v>
+      </c>
+      <c r="H13">
+        <v>41.88</v>
+      </c>
+      <c r="I13">
+        <v>64.8</v>
+      </c>
+      <c r="J13">
+        <v>54.27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>40.98</v>
+      </c>
+      <c r="C14">
+        <v>93.42</v>
+      </c>
+      <c r="D14">
+        <v>35.18</v>
+      </c>
+      <c r="E14">
+        <v>104.28</v>
+      </c>
+      <c r="F14">
+        <v>30.39</v>
+      </c>
+      <c r="G14">
+        <v>95.38</v>
+      </c>
+      <c r="H14">
+        <v>47.71</v>
+      </c>
+      <c r="I14">
+        <v>69.84</v>
+      </c>
+      <c r="J14">
+        <v>55.36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>53.5</v>
+      </c>
+      <c r="C15">
+        <v>67.45999999999999</v>
+      </c>
+      <c r="D15">
+        <v>50.18</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>108.77</v>
+      </c>
+      <c r="G15">
+        <v>96.88</v>
+      </c>
+      <c r="H15">
+        <v>45.86</v>
+      </c>
+      <c r="I15">
+        <v>94.13</v>
+      </c>
+      <c r="J15">
+        <v>21.53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>65.19</v>
+      </c>
+      <c r="C16">
+        <v>62.63</v>
+      </c>
+      <c r="D16">
+        <v>51.13</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>124</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>27.53</v>
+      </c>
+      <c r="I16">
+        <v>40.26</v>
+      </c>
+      <c r="J16">
+        <v>35.03</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>40.12</v>
+      </c>
+      <c r="C17">
+        <v>32.38</v>
+      </c>
+      <c r="D17">
+        <v>39.85</v>
+      </c>
+      <c r="E17">
+        <v>60.19</v>
+      </c>
+      <c r="F17">
+        <v>103.33</v>
+      </c>
+      <c r="G17">
+        <v>15.42</v>
+      </c>
+      <c r="H17">
+        <v>35.5</v>
+      </c>
+      <c r="I17">
+        <v>100.8</v>
+      </c>
+      <c r="J17">
+        <v>48.44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>70.09999999999999</v>
+      </c>
+      <c r="C18">
+        <v>11.07</v>
+      </c>
+      <c r="D18">
+        <v>29.93</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>15.66</v>
+      </c>
+      <c r="H18">
+        <v>6.77</v>
+      </c>
+      <c r="I18">
+        <v>14.58</v>
+      </c>
+      <c r="J18">
+        <v>53.45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>68.54000000000001</v>
+      </c>
+      <c r="C19">
+        <v>75.45999999999999</v>
+      </c>
+      <c r="D19">
+        <v>53.85</v>
+      </c>
+      <c r="E19">
+        <v>104.28</v>
+      </c>
+      <c r="F19">
+        <v>55.86</v>
+      </c>
+      <c r="G19">
+        <v>23.48</v>
+      </c>
+      <c r="H19">
+        <v>79.81</v>
+      </c>
+      <c r="I19">
+        <v>33.42</v>
+      </c>
+      <c r="J19">
+        <v>121.57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>44</v>
+      </c>
+      <c r="C20">
+        <v>24.76</v>
+      </c>
+      <c r="D20">
+        <v>19.36</v>
+      </c>
+      <c r="E20">
+        <v>35.86</v>
+      </c>
+      <c r="F20">
+        <v>78.48</v>
+      </c>
+      <c r="G20">
+        <v>90.20999999999999</v>
+      </c>
+      <c r="H20">
+        <v>77.95</v>
+      </c>
+      <c r="I20">
+        <v>119.67</v>
+      </c>
+      <c r="J20">
+        <v>110.06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>40.92</v>
+      </c>
+      <c r="C21">
+        <v>20.82</v>
+      </c>
+      <c r="D21">
+        <v>67.92</v>
+      </c>
+      <c r="E21">
+        <v>124.91</v>
+      </c>
+      <c r="F21">
+        <v>172.22</v>
+      </c>
+      <c r="G21">
+        <v>79.48999999999999</v>
+      </c>
+      <c r="H21">
+        <v>96.7</v>
+      </c>
+      <c r="I21">
+        <v>13.68</v>
+      </c>
+      <c r="J21">
+        <v>67.39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>25.76</v>
+      </c>
+      <c r="C22">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="D22">
+        <v>10.63</v>
+      </c>
+      <c r="E22">
+        <v>94.72</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>10.74</v>
+      </c>
+      <c r="I22">
+        <v>28.07</v>
+      </c>
+      <c r="J22">
+        <v>153.09</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>94.20999999999999</v>
+      </c>
+      <c r="C23">
+        <v>43.69</v>
+      </c>
+      <c r="D23">
+        <v>15.38</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>190.77</v>
+      </c>
+      <c r="H23">
+        <v>52.08</v>
+      </c>
+      <c r="I23">
+        <v>18.59</v>
+      </c>
+      <c r="J23">
+        <v>64.58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>114.7</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>18.72</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>32.29</v>
+      </c>
+      <c r="H24">
+        <v>132.48</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>134.78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>16.77</v>
+      </c>
+      <c r="C25">
+        <v>36.41</v>
+      </c>
+      <c r="D25">
+        <v>21.96</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>182.35</v>
+      </c>
+      <c r="G25">
+        <v>112.32</v>
+      </c>
+      <c r="H25">
+        <v>166.67</v>
+      </c>
+      <c r="I25">
+        <v>606.9400000000001</v>
+      </c>
+      <c r="J25">
+        <v>206.67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>102.77</v>
+      </c>
+      <c r="C26">
+        <v>71.91</v>
+      </c>
+      <c r="D26">
+        <v>85.79000000000001</v>
+      </c>
+      <c r="E26">
+        <v>34.93</v>
+      </c>
+      <c r="F26">
+        <v>155</v>
+      </c>
+      <c r="G26">
+        <v>95.54000000000001</v>
+      </c>
+      <c r="H26">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="I26">
+        <v>59.99</v>
+      </c>
+      <c r="J26">
+        <v>99.17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>123.14</v>
+      </c>
+      <c r="C27">
+        <v>84.95999999999999</v>
+      </c>
+      <c r="D27">
+        <v>103.44</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>158.97</v>
+      </c>
+      <c r="G27">
+        <v>105.44</v>
+      </c>
+      <c r="H27">
+        <v>171.3</v>
+      </c>
+      <c r="I27">
+        <v>30.15</v>
+      </c>
+      <c r="J27">
+        <v>200.93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>87.88</v>
+      </c>
+      <c r="C28">
+        <v>6.95</v>
+      </c>
+      <c r="D28">
+        <v>53.26</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>72.77</v>
+      </c>
+      <c r="H28">
+        <v>65.95999999999999</v>
+      </c>
+      <c r="I28">
+        <v>37.57</v>
+      </c>
+      <c r="J28">
+        <v>65.61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>162.52</v>
+      </c>
+      <c r="C29">
+        <v>61.87</v>
+      </c>
+      <c r="D29">
+        <v>136.83</v>
+      </c>
+      <c r="E29">
+        <v>146.39</v>
+      </c>
+      <c r="F29">
+        <v>162.09</v>
+      </c>
+      <c r="G29">
+        <v>102.2</v>
+      </c>
+      <c r="H29">
+        <v>66.16</v>
+      </c>
+      <c r="I29">
+        <v>85.08</v>
+      </c>
+      <c r="J29">
+        <v>119.81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>41.46</v>
+      </c>
+      <c r="C30">
+        <v>43.68</v>
+      </c>
+      <c r="D30">
+        <v>75.45</v>
+      </c>
+      <c r="E30">
+        <v>30.1</v>
+      </c>
+      <c r="F30">
+        <v>118.1</v>
+      </c>
+      <c r="G30">
+        <v>92.54000000000001</v>
+      </c>
+      <c r="H30">
+        <v>26.27</v>
+      </c>
+      <c r="I30">
+        <v>48.05</v>
+      </c>
+      <c r="J30">
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>102.8</v>
+      </c>
+      <c r="C31">
+        <v>134.63</v>
+      </c>
+      <c r="D31">
+        <v>53.9</v>
+      </c>
+      <c r="E31">
+        <v>30.1</v>
+      </c>
+      <c r="F31">
+        <v>277.24</v>
+      </c>
+      <c r="G31">
+        <v>95.88</v>
+      </c>
+      <c r="H31">
+        <v>71.26000000000001</v>
+      </c>
+      <c r="I31">
+        <v>126.58</v>
+      </c>
+      <c r="J31">
+        <v>97.48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>124.13</v>
+      </c>
+      <c r="C32">
+        <v>55.66</v>
+      </c>
+      <c r="D32">
+        <v>80.8</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>114.81</v>
+      </c>
+      <c r="H32">
+        <v>92.5</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>89.84</v>
+      </c>
+      <c r="C33">
+        <v>73.01000000000001</v>
+      </c>
+      <c r="D33">
+        <v>72.20999999999999</v>
+      </c>
+      <c r="E33">
+        <v>58.97</v>
+      </c>
+      <c r="F33">
+        <v>173.29</v>
+      </c>
+      <c r="G33">
+        <v>76.81</v>
+      </c>
+      <c r="H33">
+        <v>44</v>
+      </c>
+      <c r="I33">
+        <v>29.98</v>
+      </c>
+      <c r="J33">
+        <v>69.91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>109.66</v>
+      </c>
+      <c r="C34">
+        <v>102.97</v>
+      </c>
+      <c r="D34">
+        <v>93.20999999999999</v>
+      </c>
+      <c r="E34">
+        <v>140.11</v>
+      </c>
+      <c r="F34">
+        <v>221.43</v>
+      </c>
+      <c r="G34">
+        <v>108.77</v>
+      </c>
+      <c r="H34">
+        <v>41.99</v>
+      </c>
+      <c r="I34">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="J34">
+        <v>82.01000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>98.77</v>
+      </c>
+      <c r="C35">
+        <v>74.73999999999999</v>
+      </c>
+      <c r="D35">
+        <v>89.41</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>137.78</v>
+      </c>
+      <c r="G35">
+        <v>129.17</v>
+      </c>
+      <c r="H35">
+        <v>32.36</v>
+      </c>
+      <c r="I35">
+        <v>52.42</v>
+      </c>
+      <c r="J35">
+        <v>119.94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>66.18000000000001</v>
+      </c>
+      <c r="C36">
+        <v>53.74</v>
+      </c>
+      <c r="D36">
+        <v>76.95999999999999</v>
+      </c>
+      <c r="E36">
+        <v>220.71</v>
+      </c>
+      <c r="F36">
+        <v>137.78</v>
+      </c>
+      <c r="G36">
+        <v>85.09999999999999</v>
+      </c>
+      <c r="H36">
+        <v>6.04</v>
+      </c>
+      <c r="I36">
+        <v>43.76</v>
+      </c>
+      <c r="J36">
+        <v>60.78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>81.67</v>
+      </c>
+      <c r="C37">
+        <v>59.05</v>
+      </c>
+      <c r="D37">
+        <v>60.37</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>479.76</v>
+      </c>
+      <c r="G37">
+        <v>105.08</v>
+      </c>
+      <c r="H37">
+        <v>38.77</v>
+      </c>
+      <c r="I37">
+        <v>25.88</v>
+      </c>
+      <c r="J37">
+        <v>20.26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>30.55</v>
+      </c>
+      <c r="C38">
+        <v>99.66</v>
+      </c>
+      <c r="D38">
+        <v>78.52</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>42.18</v>
+      </c>
+      <c r="H38">
+        <v>32.42</v>
+      </c>
+      <c r="I38">
+        <v>6.99</v>
+      </c>
+      <c r="J38">
+        <v>59.05</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>79.44</v>
+      </c>
+      <c r="C39">
+        <v>47.3</v>
+      </c>
+      <c r="D39">
+        <v>21.76</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>64.58</v>
+      </c>
+      <c r="G39">
+        <v>37.58</v>
+      </c>
+      <c r="H39">
+        <v>100</v>
+      </c>
+      <c r="I39">
+        <v>22.46</v>
+      </c>
+      <c r="J39">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>203.56</v>
+      </c>
+      <c r="C40">
+        <v>60.45</v>
+      </c>
+      <c r="D40">
+        <v>59.72</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>172.22</v>
+      </c>
+      <c r="G40">
+        <v>32.29</v>
+      </c>
+      <c r="H40">
+        <v>83.16</v>
+      </c>
+      <c r="I40">
+        <v>29.64</v>
+      </c>
+      <c r="J40">
+        <v>60.78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>44.03</v>
+      </c>
+      <c r="C41">
+        <v>42.51</v>
+      </c>
+      <c r="D41">
+        <v>68.65000000000001</v>
+      </c>
+      <c r="E41">
+        <v>12.76</v>
+      </c>
+      <c r="F41">
+        <v>61.69</v>
+      </c>
+      <c r="G41">
+        <v>52.62</v>
+      </c>
+      <c r="H41">
+        <v>13.15</v>
+      </c>
+      <c r="I41">
+        <v>28.36</v>
+      </c>
+      <c r="J41">
+        <v>39.18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>57.37</v>
+      </c>
+      <c r="C42">
+        <v>55.56</v>
+      </c>
+      <c r="D42">
+        <v>119.87</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>44.93</v>
+      </c>
+      <c r="H42">
+        <v>15.66</v>
+      </c>
+      <c r="I42">
+        <v>22.27</v>
+      </c>
+      <c r="J42">
+        <v>28.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>41.46</v>
+      </c>
+      <c r="C43">
+        <v>26.86</v>
+      </c>
+      <c r="D43">
+        <v>37.14</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>23.48</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>35.56</v>
+      </c>
+      <c r="J43">
+        <v>23.48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
+        <v>26.34</v>
+      </c>
+      <c r="C44">
+        <v>21.7</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>193.75</v>
+      </c>
+      <c r="G44">
+        <v>19.14</v>
+      </c>
+      <c r="H44">
+        <v>9.52</v>
+      </c>
+      <c r="I44">
+        <v>25.76</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>45.82</v>
+      </c>
+      <c r="C45">
+        <v>60.08</v>
+      </c>
+      <c r="D45">
+        <v>112.37</v>
+      </c>
+      <c r="E45">
+        <v>56.88</v>
+      </c>
+      <c r="F45">
+        <v>64.58</v>
+      </c>
+      <c r="G45">
+        <v>87.02</v>
+      </c>
+      <c r="H45">
+        <v>25.13</v>
+      </c>
+      <c r="I45">
+        <v>28.84</v>
+      </c>
+      <c r="J45">
+        <v>78.48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/SalesTrend/SalesTrend_CBU.xlsx
+++ b/Data/SalesTrend/SalesTrend_CBU.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>FFTR</t>
   </si>
@@ -44,6 +44,15 @@
   </si>
   <si>
     <t>NOCLOG</t>
+  </si>
+  <si>
+    <t>BEMPID</t>
+  </si>
+  <si>
+    <t>AROTIDE</t>
+  </si>
+  <si>
+    <t>FOBUNID</t>
   </si>
   <si>
     <t>CBU</t>
@@ -533,13 +542,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,1413 +579,1818 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B2">
-        <v>72.17</v>
+        <v>76.33</v>
       </c>
       <c r="C2">
-        <v>66.48</v>
+        <v>72.5</v>
       </c>
       <c r="D2">
-        <v>60.52</v>
+        <v>65.56999999999999</v>
       </c>
       <c r="E2">
-        <v>44.56</v>
+        <v>38.67</v>
       </c>
       <c r="F2">
-        <v>121.87</v>
+        <v>110.58</v>
       </c>
       <c r="G2">
-        <v>68.34999999999999</v>
+        <v>161.3</v>
       </c>
       <c r="H2">
-        <v>54.5</v>
+        <v>63.01</v>
       </c>
       <c r="I2">
-        <v>58.49</v>
+        <v>48.99</v>
       </c>
       <c r="J2">
-        <v>81.63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>84.81</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>54.12</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3">
-        <v>74</v>
+        <v>68.41</v>
       </c>
       <c r="C3">
-        <v>103.08</v>
+        <v>74.34999999999999</v>
       </c>
       <c r="D3">
-        <v>86.48999999999999</v>
+        <v>107.31</v>
       </c>
       <c r="E3">
-        <v>24.65</v>
+        <v>10.57</v>
       </c>
       <c r="F3">
-        <v>101.88</v>
+        <v>99.8</v>
       </c>
       <c r="G3">
-        <v>41.33</v>
+        <v>127.25</v>
       </c>
       <c r="H3">
-        <v>87.18000000000001</v>
+        <v>81.77</v>
       </c>
       <c r="I3">
-        <v>69.05</v>
+        <v>82.31999999999999</v>
       </c>
       <c r="J3">
-        <v>123.38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>89.23</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>121.13</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4">
-        <v>113.95</v>
+        <v>74.76000000000001</v>
       </c>
       <c r="C4">
-        <v>251.64</v>
+        <v>134.23</v>
       </c>
       <c r="D4">
-        <v>41.7</v>
+        <v>17.87</v>
       </c>
       <c r="E4">
-        <v>120.39</v>
+        <v>51.59</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>27.68</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>55.15</v>
       </c>
       <c r="H4">
-        <v>120.16</v>
+        <v>51.5</v>
       </c>
       <c r="I4">
-        <v>187.45</v>
+        <v>149.43</v>
       </c>
       <c r="J4">
-        <v>229.63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>114.81</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>29.44</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B5">
-        <v>46.63</v>
+        <v>44.5</v>
       </c>
       <c r="C5">
-        <v>49.54</v>
+        <v>34.38</v>
       </c>
       <c r="D5">
-        <v>122.05</v>
+        <v>79.84999999999999</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>110.71</v>
       </c>
       <c r="G5">
-        <v>21.53</v>
+        <v>142.35</v>
       </c>
       <c r="H5">
-        <v>72.26000000000001</v>
+        <v>69.68000000000001</v>
       </c>
       <c r="I5">
-        <v>17.1</v>
+        <v>78.52</v>
       </c>
       <c r="J5">
-        <v>86.11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>61.51</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>299.07</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>29.85</v>
       </c>
       <c r="C6">
-        <v>33.01</v>
+        <v>46.79</v>
       </c>
       <c r="D6">
-        <v>95.23999999999999</v>
+        <v>183.67</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>114.81</v>
+        <v>49.21</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>106.06</v>
       </c>
       <c r="H6">
-        <v>61.92</v>
+        <v>72.98</v>
       </c>
       <c r="I6">
-        <v>17.86</v>
+        <v>28.43</v>
       </c>
       <c r="J6">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>53.14</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>22.1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B7">
-        <v>116.52</v>
+        <v>130.62</v>
       </c>
       <c r="C7">
-        <v>90.06999999999999</v>
+        <v>87.93000000000001</v>
       </c>
       <c r="D7">
-        <v>87.2</v>
+        <v>160.33</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>182.35</v>
+        <v>143.28</v>
       </c>
       <c r="G7">
-        <v>114.81</v>
+        <v>179.25</v>
       </c>
       <c r="H7">
-        <v>86.58</v>
+        <v>111.32</v>
       </c>
       <c r="I7">
-        <v>53.77</v>
+        <v>72.41</v>
       </c>
       <c r="J7">
-        <v>89.86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>115.53</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>141.48</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B8">
-        <v>82.42</v>
+        <v>73.76000000000001</v>
       </c>
       <c r="C8">
-        <v>95.98999999999999</v>
+        <v>90.11</v>
       </c>
       <c r="D8">
-        <v>94.38</v>
+        <v>86.28</v>
       </c>
       <c r="E8">
-        <v>96.23999999999999</v>
+        <v>45.59</v>
       </c>
       <c r="F8">
-        <v>164.73</v>
+        <v>128.36</v>
       </c>
       <c r="G8">
-        <v>64.81999999999999</v>
+        <v>148.48</v>
       </c>
       <c r="H8">
-        <v>67.31</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="I8">
-        <v>84.05</v>
+        <v>63.31</v>
       </c>
       <c r="J8">
-        <v>128.61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>114.04</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>54.32</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B9">
-        <v>84.59</v>
+        <v>71.15000000000001</v>
       </c>
       <c r="C9">
-        <v>84.91</v>
+        <v>101.15</v>
       </c>
       <c r="D9">
-        <v>98.92</v>
+        <v>94.76000000000001</v>
       </c>
       <c r="E9">
-        <v>401.29</v>
+        <v>197.78</v>
       </c>
       <c r="F9">
-        <v>258.33</v>
+        <v>138.39</v>
       </c>
       <c r="G9">
-        <v>119.81</v>
+        <v>113.69</v>
       </c>
       <c r="H9">
-        <v>101.19</v>
+        <v>100.53</v>
       </c>
       <c r="I9">
-        <v>83.88</v>
+        <v>54.23</v>
       </c>
       <c r="J9">
-        <v>180.83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>127.32</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>130.03</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B10">
-        <v>148.63</v>
+        <v>98.08</v>
       </c>
       <c r="C10">
-        <v>164.35</v>
+        <v>91.56</v>
       </c>
       <c r="D10">
-        <v>32.15</v>
+        <v>63.11</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>275.56</v>
+        <v>147.62</v>
       </c>
       <c r="G10">
-        <v>46.97</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="H10">
-        <v>101.77</v>
+        <v>86.39</v>
       </c>
       <c r="I10">
-        <v>134.69</v>
+        <v>82.45</v>
       </c>
       <c r="J10">
-        <v>247.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>163.66</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B11">
-        <v>57.61</v>
+        <v>67.65000000000001</v>
       </c>
       <c r="C11">
-        <v>77.53</v>
+        <v>93.03</v>
       </c>
       <c r="D11">
-        <v>171.57</v>
+        <v>99.44</v>
       </c>
       <c r="E11">
-        <v>85.28</v>
+        <v>36.55</v>
       </c>
       <c r="F11">
-        <v>129.17</v>
+        <v>166.07</v>
       </c>
       <c r="G11">
-        <v>81.58</v>
+        <v>243.91</v>
       </c>
       <c r="H11">
-        <v>49.6</v>
+        <v>76.17</v>
       </c>
       <c r="I11">
-        <v>59.26</v>
+        <v>72.7</v>
       </c>
       <c r="J11">
+        <v>99.42</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>71.42</v>
+      </c>
+      <c r="C12">
+        <v>74.52</v>
+      </c>
+      <c r="D12">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>31.63</v>
+      </c>
+      <c r="G12">
+        <v>126.53</v>
+      </c>
+      <c r="H12">
+        <v>39.73</v>
+      </c>
+      <c r="I12">
+        <v>45.38</v>
+      </c>
+      <c r="J12">
+        <v>68.72</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>88.56999999999999</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>80.09</v>
+      </c>
+      <c r="C13">
+        <v>74.17</v>
+      </c>
+      <c r="D13">
+        <v>62.21</v>
+      </c>
+      <c r="E13">
+        <v>47.34</v>
+      </c>
+      <c r="F13">
+        <v>80.76000000000001</v>
+      </c>
+      <c r="G13">
+        <v>148.82</v>
+      </c>
+      <c r="H13">
+        <v>60.02</v>
+      </c>
+      <c r="I13">
+        <v>57.23</v>
+      </c>
+      <c r="J13">
+        <v>64.93000000000001</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>36.93</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>78.65000000000001</v>
+      </c>
+      <c r="C14">
+        <v>94.03</v>
+      </c>
+      <c r="D14">
+        <v>50.26</v>
+      </c>
+      <c r="E14">
+        <v>44.69</v>
+      </c>
+      <c r="F14">
+        <v>65.13</v>
+      </c>
+      <c r="G14">
+        <v>197.59</v>
+      </c>
+      <c r="H14">
+        <v>39.82</v>
+      </c>
+      <c r="I14">
+        <v>42.51</v>
+      </c>
+      <c r="J14">
         <v>63.27</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12">
-        <v>78.3</v>
-      </c>
-      <c r="C12">
-        <v>83.40000000000001</v>
-      </c>
-      <c r="D12">
-        <v>38.42</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>15.45</v>
-      </c>
-      <c r="I12">
-        <v>51.88</v>
-      </c>
-      <c r="J12">
-        <v>17.82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13">
-        <v>54.69</v>
-      </c>
-      <c r="C13">
-        <v>57.77</v>
-      </c>
-      <c r="D13">
-        <v>42.94</v>
-      </c>
-      <c r="E13">
-        <v>39.15</v>
-      </c>
-      <c r="F13">
-        <v>72.94</v>
-      </c>
-      <c r="G13">
-        <v>39.09</v>
-      </c>
-      <c r="H13">
-        <v>41.88</v>
-      </c>
-      <c r="I13">
-        <v>64.8</v>
-      </c>
-      <c r="J13">
-        <v>54.27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14">
-        <v>40.98</v>
-      </c>
-      <c r="C14">
-        <v>93.42</v>
-      </c>
-      <c r="D14">
-        <v>35.18</v>
-      </c>
-      <c r="E14">
-        <v>104.28</v>
-      </c>
-      <c r="F14">
-        <v>30.39</v>
-      </c>
-      <c r="G14">
-        <v>95.38</v>
-      </c>
-      <c r="H14">
-        <v>47.71</v>
-      </c>
-      <c r="I14">
-        <v>69.84</v>
-      </c>
-      <c r="J14">
-        <v>55.36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>60.96</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B15">
-        <v>53.5</v>
+        <v>75.66</v>
       </c>
       <c r="C15">
-        <v>67.45999999999999</v>
+        <v>93.95999999999999</v>
       </c>
       <c r="D15">
-        <v>50.18</v>
+        <v>72.65000000000001</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>89.38</v>
       </c>
       <c r="F15">
-        <v>108.77</v>
+        <v>46.62</v>
       </c>
       <c r="G15">
-        <v>96.88</v>
+        <v>177.93</v>
       </c>
       <c r="H15">
-        <v>45.86</v>
+        <v>81.23</v>
       </c>
       <c r="I15">
-        <v>94.13</v>
+        <v>53.87</v>
       </c>
       <c r="J15">
-        <v>21.53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>59.97</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>44.29</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B16">
-        <v>65.19</v>
+        <v>93.08</v>
       </c>
       <c r="C16">
-        <v>62.63</v>
+        <v>66.11</v>
       </c>
       <c r="D16">
-        <v>51.13</v>
+        <v>48.07</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>25.8</v>
       </c>
       <c r="F16">
-        <v>124</v>
+        <v>177.14</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>187.2</v>
       </c>
       <c r="H16">
-        <v>27.53</v>
+        <v>40.12</v>
       </c>
       <c r="I16">
-        <v>40.26</v>
+        <v>80.06</v>
       </c>
       <c r="J16">
-        <v>35.03</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>67.55</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B17">
-        <v>40.12</v>
+        <v>61.55</v>
       </c>
       <c r="C17">
-        <v>32.38</v>
+        <v>34.69</v>
       </c>
       <c r="D17">
-        <v>39.85</v>
+        <v>57.38</v>
       </c>
       <c r="E17">
-        <v>60.19</v>
+        <v>25.8</v>
       </c>
       <c r="F17">
-        <v>103.33</v>
+        <v>177.14</v>
       </c>
       <c r="G17">
-        <v>15.42</v>
+        <v>101.04</v>
       </c>
       <c r="H17">
-        <v>35.5</v>
+        <v>49.02</v>
       </c>
       <c r="I17">
-        <v>100.8</v>
+        <v>56.13</v>
       </c>
       <c r="J17">
         <v>48.44</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>43.15</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B18">
-        <v>70.09999999999999</v>
+        <v>98.14</v>
       </c>
       <c r="C18">
-        <v>11.07</v>
+        <v>75.92</v>
       </c>
       <c r="D18">
-        <v>29.93</v>
+        <v>68.42</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>73.09</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>15.66</v>
+        <v>149.54</v>
       </c>
       <c r="H18">
-        <v>6.77</v>
+        <v>28.04</v>
       </c>
       <c r="I18">
-        <v>14.58</v>
+        <v>24.99</v>
       </c>
       <c r="J18">
-        <v>53.45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>38.18</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>60.96</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B19">
-        <v>68.54000000000001</v>
+        <v>81.91</v>
       </c>
       <c r="C19">
-        <v>75.45999999999999</v>
+        <v>91.63</v>
       </c>
       <c r="D19">
-        <v>53.85</v>
+        <v>81.5</v>
       </c>
       <c r="E19">
-        <v>104.28</v>
+        <v>44.69</v>
       </c>
       <c r="F19">
-        <v>55.86</v>
+        <v>47.88</v>
       </c>
       <c r="G19">
-        <v>23.48</v>
+        <v>95.62</v>
       </c>
       <c r="H19">
-        <v>79.81</v>
+        <v>114.31</v>
       </c>
       <c r="I19">
-        <v>33.42</v>
+        <v>86.19</v>
       </c>
       <c r="J19">
-        <v>121.57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>110.71</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B20">
-        <v>44</v>
+        <v>52.91</v>
       </c>
       <c r="C20">
-        <v>24.76</v>
+        <v>42.24</v>
       </c>
       <c r="D20">
-        <v>19.36</v>
+        <v>29.55</v>
       </c>
       <c r="E20">
-        <v>35.86</v>
+        <v>43.31</v>
       </c>
       <c r="F20">
-        <v>78.48</v>
+        <v>151.36</v>
       </c>
       <c r="G20">
-        <v>90.20999999999999</v>
+        <v>186.78</v>
       </c>
       <c r="H20">
-        <v>77.95</v>
+        <v>73.48999999999999</v>
       </c>
       <c r="I20">
-        <v>119.67</v>
+        <v>98.14</v>
       </c>
       <c r="J20">
         <v>110.06</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>45.78</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B21">
-        <v>40.92</v>
+        <v>73.33</v>
       </c>
       <c r="C21">
-        <v>20.82</v>
+        <v>71.39</v>
       </c>
       <c r="D21">
-        <v>67.92</v>
+        <v>107.51</v>
       </c>
       <c r="E21">
-        <v>124.91</v>
+        <v>53.53</v>
       </c>
       <c r="F21">
-        <v>172.22</v>
+        <v>98.41</v>
       </c>
       <c r="G21">
-        <v>79.48999999999999</v>
+        <v>121.66</v>
       </c>
       <c r="H21">
-        <v>96.7</v>
+        <v>71.05</v>
       </c>
       <c r="I21">
-        <v>13.68</v>
+        <v>28.38</v>
       </c>
       <c r="J21">
-        <v>67.39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>28.88</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>110.43</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B22">
-        <v>25.76</v>
+        <v>30.27</v>
       </c>
       <c r="C22">
-        <v>8.789999999999999</v>
+        <v>17.32</v>
       </c>
       <c r="D22">
-        <v>10.63</v>
+        <v>7.59</v>
       </c>
       <c r="E22">
-        <v>94.72</v>
+        <v>84.88</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>405.95</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>199.79</v>
       </c>
       <c r="H22">
-        <v>10.74</v>
+        <v>13.81</v>
       </c>
       <c r="I22">
-        <v>28.07</v>
+        <v>56.13</v>
       </c>
       <c r="J22">
-        <v>153.09</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>98.41</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B23">
-        <v>94.20999999999999</v>
+        <v>93.93000000000001</v>
       </c>
       <c r="C23">
-        <v>43.69</v>
+        <v>59.92</v>
       </c>
       <c r="D23">
-        <v>15.38</v>
+        <v>32.95</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>37.64</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>55.36</v>
       </c>
       <c r="G23">
-        <v>190.77</v>
+        <v>217.05</v>
       </c>
       <c r="H23">
-        <v>52.08</v>
+        <v>75.89</v>
       </c>
       <c r="I23">
-        <v>18.59</v>
+        <v>58.62</v>
       </c>
       <c r="J23">
-        <v>64.58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>101.49</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B24">
-        <v>114.7</v>
+        <v>84.91</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>17.71</v>
       </c>
       <c r="D24">
-        <v>18.72</v>
+        <v>25.35</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>47.3</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>32.29</v>
+        <v>75.13</v>
       </c>
       <c r="H24">
-        <v>132.48</v>
+        <v>68.13</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="J24">
-        <v>134.78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>115.53</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>130.03</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B25">
-        <v>16.77</v>
+        <v>36.65</v>
       </c>
       <c r="C25">
-        <v>36.41</v>
+        <v>41.61</v>
       </c>
       <c r="D25">
-        <v>21.96</v>
+        <v>41.29</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>182.35</v>
+        <v>234.45</v>
       </c>
       <c r="G25">
-        <v>112.32</v>
+        <v>279.19</v>
       </c>
       <c r="H25">
-        <v>166.67</v>
+        <v>168.57</v>
       </c>
       <c r="I25">
-        <v>606.9400000000001</v>
+        <v>372.4</v>
       </c>
       <c r="J25">
-        <v>206.67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>283.43</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B26">
-        <v>102.77</v>
+        <v>88.42</v>
       </c>
       <c r="C26">
-        <v>71.91</v>
+        <v>76.93000000000001</v>
       </c>
       <c r="D26">
-        <v>85.79000000000001</v>
+        <v>76.83</v>
       </c>
       <c r="E26">
-        <v>34.93</v>
+        <v>35.61</v>
       </c>
       <c r="F26">
-        <v>155</v>
+        <v>73.81</v>
       </c>
       <c r="G26">
-        <v>95.54000000000001</v>
+        <v>157.93</v>
       </c>
       <c r="H26">
-        <v>74.40000000000001</v>
+        <v>71.81</v>
       </c>
       <c r="I26">
-        <v>59.99</v>
+        <v>38.08</v>
       </c>
       <c r="J26">
-        <v>99.17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>100.09</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>35.32</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B27">
-        <v>123.14</v>
+        <v>91.78</v>
       </c>
       <c r="C27">
-        <v>84.95999999999999</v>
+        <v>78.75</v>
       </c>
       <c r="D27">
-        <v>103.44</v>
+        <v>139.86</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>158.97</v>
+        <v>68.13</v>
       </c>
       <c r="G27">
+        <v>171.72</v>
+      </c>
+      <c r="H27">
+        <v>104.2</v>
+      </c>
+      <c r="I27">
+        <v>17.89</v>
+      </c>
+      <c r="J27">
+        <v>209.13</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>27.61</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="C28">
+        <v>75.45999999999999</v>
+      </c>
+      <c r="D28">
+        <v>63.69</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>29.52</v>
+      </c>
+      <c r="G28">
+        <v>151.48</v>
+      </c>
+      <c r="H28">
+        <v>100.22</v>
+      </c>
+      <c r="I28">
+        <v>37.49</v>
+      </c>
+      <c r="J28">
         <v>105.44</v>
       </c>
-      <c r="H27">
-        <v>171.3</v>
-      </c>
-      <c r="I27">
-        <v>30.15</v>
-      </c>
-      <c r="J27">
-        <v>200.93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28">
-        <v>87.88</v>
-      </c>
-      <c r="C28">
-        <v>6.95</v>
-      </c>
-      <c r="D28">
-        <v>53.26</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>72.77</v>
-      </c>
-      <c r="H28">
-        <v>65.95999999999999</v>
-      </c>
-      <c r="I28">
-        <v>37.57</v>
-      </c>
-      <c r="J28">
-        <v>65.61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>61.63</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B29">
-        <v>162.52</v>
+        <v>94.78</v>
       </c>
       <c r="C29">
-        <v>61.87</v>
+        <v>61.49</v>
       </c>
       <c r="D29">
-        <v>136.83</v>
+        <v>70.31</v>
       </c>
       <c r="E29">
-        <v>146.39</v>
+        <v>62.74</v>
       </c>
       <c r="F29">
-        <v>162.09</v>
+        <v>69.47</v>
       </c>
       <c r="G29">
-        <v>102.2</v>
+        <v>201.62</v>
       </c>
       <c r="H29">
-        <v>66.16</v>
+        <v>54.21</v>
       </c>
       <c r="I29">
-        <v>85.08</v>
+        <v>41.67</v>
       </c>
       <c r="J29">
-        <v>119.81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>96.27</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B30">
-        <v>41.46</v>
+        <v>68.23999999999999</v>
       </c>
       <c r="C30">
-        <v>43.68</v>
+        <v>41.96</v>
       </c>
       <c r="D30">
-        <v>75.45</v>
+        <v>76.23999999999999</v>
       </c>
       <c r="E30">
-        <v>30.1</v>
+        <v>38.7</v>
       </c>
       <c r="F30">
-        <v>118.1</v>
+        <v>50.61</v>
       </c>
       <c r="G30">
-        <v>92.54000000000001</v>
+        <v>88.76000000000001</v>
       </c>
       <c r="H30">
-        <v>26.27</v>
+        <v>36.9</v>
       </c>
       <c r="I30">
-        <v>48.05</v>
+        <v>25.25</v>
       </c>
       <c r="J30">
-        <v>66.67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>64.29000000000001</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>19.24</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B31">
-        <v>102.8</v>
+        <v>95.67</v>
       </c>
       <c r="C31">
-        <v>134.63</v>
+        <v>118.85</v>
       </c>
       <c r="D31">
-        <v>53.9</v>
+        <v>41.01</v>
       </c>
       <c r="E31">
-        <v>30.1</v>
+        <v>73.09</v>
       </c>
       <c r="F31">
-        <v>277.24</v>
+        <v>129.62</v>
       </c>
       <c r="G31">
-        <v>95.88</v>
+        <v>131.75</v>
       </c>
       <c r="H31">
-        <v>71.26000000000001</v>
+        <v>81.18000000000001</v>
       </c>
       <c r="I31">
-        <v>126.58</v>
+        <v>79.65000000000001</v>
       </c>
       <c r="J31">
+        <v>91.91</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>60.96</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32">
+        <v>111.68</v>
+      </c>
+      <c r="C32">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="D32">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>36.9</v>
+      </c>
+      <c r="G32">
+        <v>240.76</v>
+      </c>
+      <c r="H32">
+        <v>76.39</v>
+      </c>
+      <c r="I32">
+        <v>17.99</v>
+      </c>
+      <c r="J32">
+        <v>66.43000000000001</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>29.44</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33">
+        <v>94.41</v>
+      </c>
+      <c r="C33">
+        <v>90.37</v>
+      </c>
+      <c r="D33">
+        <v>78.56999999999999</v>
+      </c>
+      <c r="E33">
+        <v>49.45</v>
+      </c>
+      <c r="F33">
+        <v>159.54</v>
+      </c>
+      <c r="G33">
+        <v>193.94</v>
+      </c>
+      <c r="H33">
+        <v>51.54</v>
+      </c>
+      <c r="I33">
+        <v>30.74</v>
+      </c>
+      <c r="J33">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>71.53</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34">
+        <v>102.18</v>
+      </c>
+      <c r="C34">
+        <v>109.17</v>
+      </c>
+      <c r="D34">
+        <v>134.22</v>
+      </c>
+      <c r="E34">
+        <v>115.09</v>
+      </c>
+      <c r="F34">
+        <v>158.16</v>
+      </c>
+      <c r="G34">
+        <v>206.45</v>
+      </c>
+      <c r="H34">
+        <v>63.63</v>
+      </c>
+      <c r="I34">
+        <v>4.16</v>
+      </c>
+      <c r="J34">
+        <v>140.59</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>228.62</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35">
+        <v>89.67</v>
+      </c>
+      <c r="C35">
         <v>97.48</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32">
-        <v>124.13</v>
-      </c>
-      <c r="C32">
-        <v>55.66</v>
-      </c>
-      <c r="D32">
-        <v>80.8</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>114.81</v>
-      </c>
-      <c r="H32">
-        <v>92.5</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>77.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33">
-        <v>89.84</v>
-      </c>
-      <c r="C33">
-        <v>73.01000000000001</v>
-      </c>
-      <c r="D33">
-        <v>72.20999999999999</v>
-      </c>
-      <c r="E33">
-        <v>58.97</v>
-      </c>
-      <c r="F33">
-        <v>173.29</v>
-      </c>
-      <c r="G33">
-        <v>76.81</v>
-      </c>
-      <c r="H33">
-        <v>44</v>
-      </c>
-      <c r="I33">
-        <v>29.98</v>
-      </c>
-      <c r="J33">
-        <v>69.91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34">
-        <v>109.66</v>
-      </c>
-      <c r="C34">
-        <v>102.97</v>
-      </c>
-      <c r="D34">
-        <v>93.20999999999999</v>
-      </c>
-      <c r="E34">
-        <v>140.11</v>
-      </c>
-      <c r="F34">
-        <v>221.43</v>
-      </c>
-      <c r="G34">
-        <v>108.77</v>
-      </c>
-      <c r="H34">
-        <v>41.99</v>
-      </c>
-      <c r="I34">
-        <v>9.710000000000001</v>
-      </c>
-      <c r="J34">
-        <v>82.01000000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35">
-        <v>98.77</v>
-      </c>
-      <c r="C35">
-        <v>74.73999999999999</v>
-      </c>
       <c r="D35">
-        <v>89.41</v>
+        <v>97.16</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>137.78</v>
+        <v>177.14</v>
       </c>
       <c r="G35">
-        <v>129.17</v>
+        <v>203.64</v>
       </c>
       <c r="H35">
-        <v>32.36</v>
+        <v>21.3</v>
       </c>
       <c r="I35">
-        <v>52.42</v>
+        <v>44.78</v>
       </c>
       <c r="J35">
-        <v>119.94</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+        <v>79.08</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>123.9</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B36">
-        <v>66.18000000000001</v>
+        <v>66.41</v>
       </c>
       <c r="C36">
-        <v>53.74</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="D36">
-        <v>76.95999999999999</v>
+        <v>93.08</v>
       </c>
       <c r="E36">
-        <v>220.71</v>
+        <v>94.59</v>
       </c>
       <c r="F36">
-        <v>137.78</v>
+        <v>132.86</v>
       </c>
       <c r="G36">
-        <v>85.09999999999999</v>
+        <v>216.59</v>
       </c>
       <c r="H36">
-        <v>6.04</v>
+        <v>32.63</v>
       </c>
       <c r="I36">
-        <v>43.76</v>
+        <v>27.93</v>
       </c>
       <c r="J36">
-        <v>60.78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>83.36</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>81.92</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B37">
-        <v>81.67</v>
+        <v>94.69</v>
       </c>
       <c r="C37">
-        <v>59.05</v>
+        <v>81.34</v>
       </c>
       <c r="D37">
-        <v>60.37</v>
+        <v>76.27</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>479.76</v>
+        <v>268.88</v>
       </c>
       <c r="G37">
-        <v>105.08</v>
+        <v>138.33</v>
       </c>
       <c r="H37">
-        <v>38.77</v>
+        <v>51.29</v>
       </c>
       <c r="I37">
-        <v>25.88</v>
+        <v>27.73</v>
       </c>
       <c r="J37">
-        <v>20.26</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+        <v>43.42</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>56.02</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B38">
-        <v>30.55</v>
+        <v>79.38</v>
       </c>
       <c r="C38">
-        <v>99.66</v>
+        <v>118.4</v>
       </c>
       <c r="D38">
-        <v>78.52</v>
+        <v>46.61</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>47.3</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>117.23</v>
       </c>
       <c r="G38">
-        <v>42.18</v>
+        <v>296.96</v>
       </c>
       <c r="H38">
-        <v>32.42</v>
+        <v>46.52</v>
       </c>
       <c r="I38">
-        <v>6.99</v>
+        <v>21.21</v>
       </c>
       <c r="J38">
-        <v>59.05</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>44.29</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>94.45999999999999</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B39">
-        <v>79.44</v>
+        <v>111.52</v>
       </c>
       <c r="C39">
-        <v>47.3</v>
+        <v>43.66</v>
       </c>
       <c r="D39">
-        <v>21.76</v>
+        <v>37.31</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>64.58</v>
+        <v>83.04000000000001</v>
       </c>
       <c r="G39">
-        <v>37.58</v>
+        <v>94.31999999999999</v>
       </c>
       <c r="H39">
-        <v>100</v>
+        <v>90.48</v>
       </c>
       <c r="I39">
-        <v>22.46</v>
+        <v>27.02</v>
       </c>
       <c r="J39">
-        <v>25.2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>54.01</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B40">
-        <v>203.56</v>
+        <v>160.06</v>
       </c>
       <c r="C40">
-        <v>60.45</v>
+        <v>75.29000000000001</v>
       </c>
       <c r="D40">
-        <v>59.72</v>
+        <v>64.23</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>50.22</v>
       </c>
       <c r="F40">
-        <v>172.22</v>
+        <v>166.07</v>
       </c>
       <c r="G40">
-        <v>32.29</v>
+        <v>140.37</v>
       </c>
       <c r="H40">
-        <v>83.16</v>
+        <v>78.41</v>
       </c>
       <c r="I40">
-        <v>29.64</v>
+        <v>47.47</v>
       </c>
       <c r="J40">
         <v>60.78</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B41">
-        <v>44.03</v>
+        <v>60.31</v>
       </c>
       <c r="C41">
-        <v>42.51</v>
+        <v>42.04</v>
       </c>
       <c r="D41">
-        <v>68.65000000000001</v>
+        <v>62.63</v>
       </c>
       <c r="E41">
-        <v>12.76</v>
+        <v>27.34</v>
       </c>
       <c r="F41">
-        <v>61.69</v>
+        <v>112.37</v>
       </c>
       <c r="G41">
-        <v>52.62</v>
+        <v>120.67</v>
       </c>
       <c r="H41">
-        <v>13.15</v>
+        <v>42.92</v>
       </c>
       <c r="I41">
-        <v>28.36</v>
+        <v>20.68</v>
       </c>
       <c r="J41">
-        <v>39.18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+        <v>71.36</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>35.56</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B42">
-        <v>57.37</v>
+        <v>38.28</v>
       </c>
       <c r="C42">
-        <v>55.56</v>
+        <v>33.33</v>
       </c>
       <c r="D42">
-        <v>119.87</v>
+        <v>72.08</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>54.79</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>80.52</v>
       </c>
       <c r="G42">
-        <v>44.93</v>
+        <v>129.28</v>
       </c>
       <c r="H42">
-        <v>15.66</v>
+        <v>24.16</v>
       </c>
       <c r="I42">
-        <v>22.27</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="J42">
-        <v>28.7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+        <v>36.9</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B43">
-        <v>41.46</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="C43">
-        <v>26.86</v>
+        <v>36.17</v>
       </c>
       <c r="D43">
-        <v>37.14</v>
+        <v>56.99</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>36.9</v>
       </c>
       <c r="G43">
-        <v>23.48</v>
+        <v>132.28</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>32.87</v>
       </c>
       <c r="I43">
-        <v>35.56</v>
+        <v>19.05</v>
       </c>
       <c r="J43">
-        <v>23.48</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+        <v>90.58</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>94.45999999999999</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B44">
-        <v>26.34</v>
+        <v>50.42</v>
       </c>
       <c r="C44">
-        <v>21.7</v>
+        <v>26.73</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>58.7</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>51.59</v>
       </c>
       <c r="F44">
-        <v>193.75</v>
+        <v>332.14</v>
       </c>
       <c r="G44">
-        <v>19.14</v>
+        <v>154.65</v>
       </c>
       <c r="H44">
-        <v>9.52</v>
+        <v>55.46</v>
       </c>
       <c r="I44">
-        <v>25.76</v>
+        <v>27.27</v>
       </c>
       <c r="J44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+        <v>68.13</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>36.11</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B45">
-        <v>45.82</v>
+        <v>75.95</v>
       </c>
       <c r="C45">
-        <v>60.08</v>
+        <v>65.66</v>
       </c>
       <c r="D45">
-        <v>112.37</v>
+        <v>64.20999999999999</v>
       </c>
       <c r="E45">
-        <v>56.88</v>
+        <v>24.38</v>
       </c>
       <c r="F45">
-        <v>64.58</v>
+        <v>27.68</v>
       </c>
       <c r="G45">
-        <v>87.02</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="H45">
-        <v>25.13</v>
+        <v>49.8</v>
       </c>
       <c r="I45">
-        <v>28.84</v>
+        <v>22.56</v>
       </c>
       <c r="J45">
         <v>78.48</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>14.95</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
